--- a/ml/datasets/r3_cpu.xlsx
+++ b/ml/datasets/r3_cpu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PC-Update-Helper-master\PC-Update-Helper\ml\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\PC-Update-Helper\ml\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA8EDF5-6D60-4A5A-AB22-9CCBE20DC4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A91441-F5D8-47BB-B96D-CB7ED3A14154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3330" yWindow="5760" windowWidth="13335" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,9 +46,6 @@
     <t>https://www.citilink.ru//product/processor-amd-ryzen-3-2200g-am4-oem-yd2200c5m4mfb-1976902/properties/</t>
   </si>
   <si>
-    <t>AMD 2200G</t>
-  </si>
-  <si>
     <t>AM4</t>
   </si>
   <si>
@@ -62,6 +59,9 @@
   </si>
   <si>
     <t>PCIE</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 3 2200G</t>
   </si>
 </sst>
 </file>
@@ -124,7 +124,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -427,12 +427,12 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,13 +452,13 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -466,7 +466,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>4</v>
@@ -478,24 +478,24 @@
         <v>3.5</v>
       </c>
       <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
         <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
       </c>
       <c r="I2">
         <v>7990</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -507,10 +507,10 @@
         <v>3.6</v>
       </c>
       <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
         <v>9</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
       </c>
       <c r="I3">
         <v>8790</v>

--- a/ml/datasets/r3_cpu.xlsx
+++ b/ml/datasets/r3_cpu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\PC-Update-Helper\ml\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A91441-F5D8-47BB-B96D-CB7ED3A14154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E6C9C6-9D8A-4190-A3C4-ECCDAA73EB6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="5760" windowWidth="13335" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="4410" windowWidth="14025" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,13 +55,13 @@
     <t>https://www.citilink.ru//product/processor-amd-ryzen-3-3200g-am4-oem-yd3200c5m4mfh-1804874/properties/</t>
   </si>
   <si>
-    <t>AMD 3200G</t>
-  </si>
-  <si>
     <t>PCIE</t>
   </si>
   <si>
     <t>AMD Ryzen 3 2200G</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 3 3200G</t>
   </si>
 </sst>
 </file>
@@ -80,6 +80,8 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -427,7 +429,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,7 +454,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -466,7 +468,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>4</v>
@@ -495,7 +497,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>4</v>
